--- a/Doc/EvoCINEMA+Effect項目_聲音編_240829_CN-2.xlsx
+++ b/Doc/EvoCINEMA+Effect項目_聲音編_240829_CN-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xrickliao/RLRepository/WorkRepo/ubestream/Projects/music_effects_to_image/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xrickliao/RLRepository/WorkRepo/ubestream/Projects/music_with_sound_effect/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F869C6F-D31C-C34B-A3F0-DB1310E16EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5819E06-5886-8941-B921-2312158CEB00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1059,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="30">
+    <row r="11" spans="2:15" ht="15">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1156,65 +1156,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CustomAttrString10 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <Archiveable xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb">false</Archiveable>
-    <CustomAttrString05 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice05 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice08 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <RetentionDate xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime02 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime07 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime08 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6e9efa6-890c-4da2-97ca-98c1a1a4f2f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <CustomAttrString04 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrString09 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice01 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice04 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime06 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice10 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrString03 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrString08 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice07 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime01 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7a42e579-7687-4896-aa62-97aec13cddea" xsi:nil="true"/>
-    <CustomAttrString02 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrString07 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice03 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice06 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime10 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime05 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <DocumentLanguage xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb">ja</DocumentLanguage>
-    <CustomAttrString01 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrString06 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice02 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrChoice09 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <AutoArchive xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb">true</AutoArchive>
-    <CustomAttrDateTime03 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime04 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <CustomAttrDateTime09 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
-    <_dlc_DocId xmlns="7a42e579-7687-4896-aa62-97aec13cddea">7PQE6C5TADRV-2078727014-91140</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="7a42e579-7687-4896-aa62-97aec13cddea">
-      <Url>https://fujifilm0.sharepoint.com/sites/jp-dms-ff40/01/_layouts/15/DocIdRedir.aspx?ID=7PQE6C5TADRV-2078727014-91140</Url>
-      <Description>7PQE6C5TADRV-2078727014-91140</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="一般文書" ma:contentTypeID="0x010100EDD0ECE172EDB142B5548E7F6B1A64E70079B5401050AB5344810FCC913BAD7972" ma:contentTypeVersion="81" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c7bddf4625db80f38c2150c7b6874b90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="face24a6-d163-45a4-9f64-39b2a13b94cb" xmlns:ns3="7a42e579-7687-4896-aa62-97aec13cddea" xmlns:ns4="a6e9efa6-890c-4da2-97ca-98c1a1a4f2f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21ef4b3bd1a1e6d26b0cbd6037a7f1ef" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="face24a6-d163-45a4-9f64-39b2a13b94cb"/>
@@ -1748,6 +1689,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CustomAttrString10 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <Archiveable xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb">false</Archiveable>
+    <CustomAttrString05 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice05 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice08 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <RetentionDate xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime02 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime07 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime08 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6e9efa6-890c-4da2-97ca-98c1a1a4f2f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <CustomAttrString04 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrString09 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice01 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice04 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime06 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice10 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrString03 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrString08 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice07 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime01 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7a42e579-7687-4896-aa62-97aec13cddea" xsi:nil="true"/>
+    <CustomAttrString02 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrString07 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice03 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice06 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime10 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime05 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <DocumentLanguage xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb">ja</DocumentLanguage>
+    <CustomAttrString01 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrString06 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice02 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrChoice09 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <AutoArchive xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb">true</AutoArchive>
+    <CustomAttrDateTime03 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime04 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <CustomAttrDateTime09 xmlns="face24a6-d163-45a4-9f64-39b2a13b94cb" xsi:nil="true"/>
+    <_dlc_DocId xmlns="7a42e579-7687-4896-aa62-97aec13cddea">7PQE6C5TADRV-2078727014-91140</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="7a42e579-7687-4896-aa62-97aec13cddea">
+      <Url>https://fujifilm0.sharepoint.com/sites/jp-dms-ff40/01/_layouts/15/DocIdRedir.aspx?ID=7PQE6C5TADRV-2078727014-91140</Url>
+      <Description>7PQE6C5TADRV-2078727014-91140</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{636C0A60-3DCF-42F8-BE76-FA2F9E3221DD}">
   <ds:schemaRefs>
@@ -1757,9 +1757,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0700BB0-0E2E-4A85-92C1-8108DBD8B52A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FAB391-91EB-4C2C-B47F-E2E4C7F29B32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="face24a6-d163-45a4-9f64-39b2a13b94cb"/>
+    <ds:schemaRef ds:uri="7a42e579-7687-4896-aa62-97aec13cddea"/>
+    <ds:schemaRef ds:uri="a6e9efa6-890c-4da2-97ca-98c1a1a4f2f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1783,21 +1795,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FAB391-91EB-4C2C-B47F-E2E4C7F29B32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0700BB0-0E2E-4A85-92C1-8108DBD8B52A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="face24a6-d163-45a4-9f64-39b2a13b94cb"/>
-    <ds:schemaRef ds:uri="7a42e579-7687-4896-aa62-97aec13cddea"/>
-    <ds:schemaRef ds:uri="a6e9efa6-890c-4da2-97ca-98c1a1a4f2f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>